--- a/A1/RvsN.xlsx
+++ b/A1/RvsN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="-1720" yWindow="940" windowWidth="15420" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,36 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,13 +75,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -166,6 +195,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0428623836793128"/>
+                  <c:y val="-0.0906022858253829"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$1:$B$10</c:f>
@@ -216,11 +295,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2089197968"/>
-        <c:axId val="-2129864672"/>
+        <c:axId val="2132432608"/>
+        <c:axId val="2132437872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2089197968"/>
+        <c:axId val="2132432608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,7 +341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129864672"/>
+        <c:crossAx val="2132437872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -270,7 +349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129864672"/>
+        <c:axId val="2132437872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,9 +400,1747 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2089197968"/>
+        <c:crossAx val="2132432608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Iterations vs. w</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>729.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2038730784"/>
+        <c:axId val="-2036015568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2038730784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2036015568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2036015568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2038730784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>iterations vs. i/h</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$48:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3774.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12197.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2029566752"/>
+        <c:axId val="2138159328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2029566752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2200.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2138159328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2138159328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2029566752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="is-IS"/>
+              <a:t>V(0.06, 0.04) vs 1/h</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$48:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2044059360"/>
+        <c:axId val="-2039391552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2044059360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2039391552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2039391552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2044059360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$48:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2120776512"/>
+        <c:axId val="-2031393056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2120776512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2031393056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2031393056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2120776512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$48:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1007.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17284.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55631.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2034536640"/>
+        <c:axId val="-2030404544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2034536640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2030404544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2030404544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2034536640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -410,6 +2227,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -926,19 +2943,2599 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -953,6 +5550,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1224,10 +5971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G48" activeCellId="2" sqref="B48:B52 D48:D52 G48:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1312,6 +6059,196 @@
         <v>3934.06</v>
       </c>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1.2</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1.3</v>
+      </c>
+      <c r="B37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1.4</v>
+      </c>
+      <c r="B38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1.5</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1.6</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1.7</v>
+      </c>
+      <c r="B41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1.8</v>
+      </c>
+      <c r="B42">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1.9</v>
+      </c>
+      <c r="B43">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.02</v>
+      </c>
+      <c r="B48">
+        <f>1/A48</f>
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.01</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:B52" si="0">1/A49</f>
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>63</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="C50">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D50">
+        <v>221</v>
+      </c>
+      <c r="F50">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G50">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1E-3</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C51">
+        <v>4.87</v>
+      </c>
+      <c r="D51">
+        <v>3774</v>
+      </c>
+      <c r="F51">
+        <v>4.88</v>
+      </c>
+      <c r="G51">
+        <v>17284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="C52">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="D52">
+        <v>12197</v>
+      </c>
+      <c r="F52">
+        <v>4.8529999999999998</v>
+      </c>
+      <c r="G52">
+        <v>55631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
